--- a/ListadoCarne.xlsx
+++ b/ListadoCarne.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,14 +424,34 @@
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>tienditadiego</t>
+          <t>tiendax</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>tiendagabriela</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>tiendasabine</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>tiendaelisa</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>admin</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Camaron crudo</t>
+          <t xml:space="preserve">pollo entero </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -439,14 +459,103 @@
           <t>1 KG</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>100 KG</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>556 KG</t>
+          <t>1 KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>lomo  de cerdo sin hueso (entero)</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1 KG</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1 KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierna y muslo de pollo </t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3 KG</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3 KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>pata de pollo</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1 KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierna sin  muslo de pollo </t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.5 KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>molleja de pollo</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>4 KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Carne molida de puerco</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>5 KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>panza de puerco ( entero )</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2 KG</t>
         </is>
       </c>
     </row>
